--- a/download/Dicionario_Dados.xlsx
+++ b/download/Dicionario_Dados.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="84" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="167" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="195">
   <si>
     <t>Dicionário de Dados</t>
   </si>
@@ -381,6 +381,225 @@
   </si>
   <si>
     <t>Nome do tipo de parceria</t>
+  </si>
+  <si>
+    <t>FAM_PBF</t>
+  </si>
+  <si>
+    <t>Programa Bolsa Família - nº benefícios</t>
+  </si>
+  <si>
+    <t>Ipea Data</t>
+  </si>
+  <si>
+    <t>BPC_idos</t>
+  </si>
+  <si>
+    <t>Benefício de Prestação Continuada idosos - nº benefícios</t>
+  </si>
+  <si>
+    <t>BPC_defi</t>
+  </si>
+  <si>
+    <t>Benefício de Prestação Continuada deficientes - nº benefícios</t>
+  </si>
+  <si>
+    <t>MORT1</t>
+  </si>
+  <si>
+    <t>Mortalidade infantil</t>
+  </si>
+  <si>
+    <t>MORT5</t>
+  </si>
+  <si>
+    <t>Mortalidade até 05 anos</t>
+  </si>
+  <si>
+    <t>IDHM</t>
+  </si>
+  <si>
+    <t>Índice de Desenvolvimento Humano Municipal agregado</t>
+  </si>
+  <si>
+    <t>IDHM_E</t>
+  </si>
+  <si>
+    <t>Índice de Desenvolvimento Humano Municipal educacao</t>
+  </si>
+  <si>
+    <t>IDHM_L</t>
+  </si>
+  <si>
+    <t>Índice de Desenvolvimento Humano Municipal longevidade</t>
+  </si>
+  <si>
+    <t>IDHM_R</t>
+  </si>
+  <si>
+    <t>Índice de Desenvolvimento Humano Municipal renda</t>
+  </si>
+  <si>
+    <t>MEDHAB</t>
+  </si>
+  <si>
+    <t>Médicos residentes</t>
+  </si>
+  <si>
+    <t>T_ANALF15M</t>
+  </si>
+  <si>
+    <t>Taxa de analfabetismo - 15 anos ou mais</t>
+  </si>
+  <si>
+    <t>MEDUCA</t>
+  </si>
+  <si>
+    <t>Anos de estudo - média - pessoas 25 anos e mais</t>
+  </si>
+  <si>
+    <t>T_FUND25M</t>
+  </si>
+  <si>
+    <t>Taxa de 25 anos ou mais com fundamental completo</t>
+  </si>
+  <si>
+    <t>T_MED25M</t>
+  </si>
+  <si>
+    <t>Taxa de 25 anos ou mais com médio completo</t>
+  </si>
+  <si>
+    <t>T_SUPER25M</t>
+  </si>
+  <si>
+    <t>Taxa de 25 anos ou mais com superior completo</t>
+  </si>
+  <si>
+    <t>T_FORA4A5</t>
+  </si>
+  <si>
+    <t>Taxa de crianças de 4 a 5 anos fora da escola</t>
+  </si>
+  <si>
+    <t>T_FORA6A14</t>
+  </si>
+  <si>
+    <t>Taxa de crianças de 6 a 14 anos fora da escola</t>
+  </si>
+  <si>
+    <t>I_FREQ_PROP</t>
+  </si>
+  <si>
+    <t>Frequência escolar</t>
+  </si>
+  <si>
+    <t>T_DES18M</t>
+  </si>
+  <si>
+    <t>Taxa de desocupação - 18 anos ou mais</t>
+  </si>
+  <si>
+    <t>TRABCC</t>
+  </si>
+  <si>
+    <t>Taxa de empregados com carteira - 18 anos ou mais</t>
+  </si>
+  <si>
+    <t>TRABSC</t>
+  </si>
+  <si>
+    <t>Taxa de empregados sem carteira - 18 anos ou mais</t>
+  </si>
+  <si>
+    <t>PMPOB</t>
+  </si>
+  <si>
+    <t>População pobre (%)</t>
+  </si>
+  <si>
+    <t>PIND</t>
+  </si>
+  <si>
+    <t>População extremamente pobre (%)</t>
+  </si>
+  <si>
+    <t>PPOB</t>
+  </si>
+  <si>
+    <t>População vulneráveis a pobreza (%)</t>
+  </si>
+  <si>
+    <t>GINI</t>
+  </si>
+  <si>
+    <t>Desigualdade (Gini)</t>
+  </si>
+  <si>
+    <t>RDPC</t>
+  </si>
+  <si>
+    <t>Renda per capita (ed 2013)</t>
+  </si>
+  <si>
+    <t>RPOB</t>
+  </si>
+  <si>
+    <t>Renda per capita média dos vulneráveis a pobreza</t>
+  </si>
+  <si>
+    <t>RMPOB</t>
+  </si>
+  <si>
+    <t>Renda per capita média dos pobres</t>
+  </si>
+  <si>
+    <t>RIND</t>
+  </si>
+  <si>
+    <t>Renda per capita média dos extremamente pobres</t>
+  </si>
+  <si>
+    <t>T_AGUA</t>
+  </si>
+  <si>
+    <t>Domicílios com rede de abastecimento de água</t>
+  </si>
+  <si>
+    <t>AGUA_ESGOTO</t>
+  </si>
+  <si>
+    <t>Domicílios com água e esgotamento inadequados</t>
+  </si>
+  <si>
+    <t>T_SLUZ</t>
+  </si>
+  <si>
+    <t>Domicílios sem energia elétrica</t>
+  </si>
+  <si>
+    <t>T_LUZ</t>
+  </si>
+  <si>
+    <t>Domicílios com energia elétrica</t>
+  </si>
+  <si>
+    <t>T_MULCHEFEFIF014</t>
+  </si>
+  <si>
+    <t>Mães chefes de família sem fundamental completo e com filhos</t>
+  </si>
+  <si>
+    <t>PESORUR</t>
+  </si>
+  <si>
+    <t>População rural</t>
+  </si>
+  <si>
+    <t>PESOURB</t>
+  </si>
+  <si>
+    <t>População urbana</t>
   </si>
 </sst>
 </file>
@@ -432,8 +651,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFBFBFBF"/>
-        <bgColor rgb="FFCCCCFF"/>
+        <fgColor rgb="FFB2B2B2"/>
+        <bgColor rgb="FF969696"/>
       </patternFill>
     </fill>
   </fills>
@@ -446,10 +665,10 @@
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="hair"/>
+      <right style="hair"/>
+      <top style="hair"/>
+      <bottom style="hair"/>
       <diagonal/>
     </border>
   </borders>
@@ -478,33 +697,29 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -532,7 +747,7 @@
       <rgbColor rgb="FF808000"/>
       <rgbColor rgb="FF800080"/>
       <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FFBFBFBF"/>
+      <rgbColor rgb="FFB2B2B2"/>
       <rgbColor rgb="FF808080"/>
       <rgbColor rgb="FF9999FF"/>
       <rgbColor rgb="FF993366"/>
@@ -584,628 +799,1024 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C56"/>
+  <dimension ref="A1:C92"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A28" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B29" activeCellId="0" sqref="B29"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.65"/>
+  <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="39.734693877551"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="47.3724489795918"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="187.163265306122"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="35.0510204081633"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="53.2602040816327"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="177.479591836735"/>
     <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="11.5204081632653"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2" t="s">
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-    </row>
-    <row r="2" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="3" t="s">
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="5" t="s">
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="5" t="s">
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="5" t="s">
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="5" t="s">
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="5" t="s">
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="5" t="s">
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="5" t="s">
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="5" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="5" t="s">
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="5" t="s">
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="5" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="5" t="s">
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C12" s="5" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="5" t="s">
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="5" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="5" t="s">
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C14" s="5" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="5" t="s">
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="C15" s="5" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="5" t="s">
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="B16" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="C16" s="5" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="5" t="s">
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="B17" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="C17" s="5" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="5" t="s">
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="B18" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="C18" s="5" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="5" t="s">
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="B19" s="6" t="s">
+      <c r="B19" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="C19" s="6" t="s">
+      <c r="C19" s="5" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="5" t="s">
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="B20" s="6" t="s">
+      <c r="B20" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="C20" s="6" t="s">
+      <c r="C20" s="5" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="5" t="s">
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="B21" s="6" t="s">
+      <c r="B21" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="C21" s="6" t="s">
+      <c r="C21" s="5" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="5" t="s">
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="B22" s="6" t="s">
+      <c r="B22" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="C22" s="6" t="s">
+      <c r="C22" s="5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="5" t="s">
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="B23" s="6" t="s">
+      <c r="B23" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="C23" s="6" t="s">
+      <c r="C23" s="5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="5" t="s">
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="B24" s="6" t="s">
+      <c r="B24" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="C24" s="6" t="s">
+      <c r="C24" s="5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="5" t="s">
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="B25" s="6" t="s">
+      <c r="B25" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="C25" s="6" t="s">
+      <c r="C25" s="5" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="5" t="s">
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="B26" s="6" t="s">
+      <c r="B26" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="C26" s="6"/>
-    </row>
-    <row r="27" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="5" t="s">
+      <c r="C26" s="5"/>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="B27" s="6" t="s">
+      <c r="B27" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="C27" s="6" t="s">
+      <c r="C27" s="5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="5" t="s">
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="B28" s="6" t="s">
+      <c r="B28" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="C28" s="6" t="s">
+      <c r="C28" s="5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A29" s="5" t="s">
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="B29" s="6" t="s">
+      <c r="B29" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="C29" s="6" t="s">
+      <c r="C29" s="5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A30" s="5" t="s">
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="B30" s="6" t="s">
+      <c r="B30" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="C30" s="6" t="s">
+      <c r="C30" s="5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A31" s="5" t="s">
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="B31" s="6" t="s">
+      <c r="B31" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="C31" s="6" t="s">
+      <c r="C31" s="5" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A32" s="5" t="s">
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="B32" s="6" t="s">
+      <c r="B32" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="C32" s="6" t="s">
+      <c r="C32" s="5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A33" s="5" t="s">
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="B33" s="6" t="s">
+      <c r="B33" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="C33" s="6" t="s">
+      <c r="C33" s="5" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A34" s="5" t="s">
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="B34" s="6" t="s">
+      <c r="B34" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="C34" s="6" t="s">
+      <c r="C34" s="5" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A35" s="5" t="s">
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="B35" s="6" t="s">
+      <c r="B35" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="C35" s="6" t="s">
+      <c r="C35" s="5" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A36" s="5" t="s">
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="B36" s="6" t="s">
+      <c r="B36" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="C36" s="6" t="s">
+      <c r="C36" s="5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A37" s="5" t="s">
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="B37" s="6" t="s">
+      <c r="B37" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="C37" s="6" t="s">
+      <c r="C37" s="5" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A38" s="5" t="s">
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="B38" s="6" t="s">
+      <c r="B38" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="C38" s="6" t="s">
+      <c r="C38" s="5" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A39" s="5" t="s">
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="B39" s="6" t="s">
+      <c r="B39" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="C39" s="6" t="s">
+      <c r="C39" s="5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A40" s="5" t="s">
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="B40" s="6" t="s">
+      <c r="B40" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="C40" s="6" t="s">
+      <c r="C40" s="5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A41" s="5" t="s">
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="B41" s="6" t="s">
+      <c r="B41" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="C41" s="6" t="s">
+      <c r="C41" s="5" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A42" s="5" t="s">
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="B42" s="6" t="s">
+      <c r="B42" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="C42" s="6" t="s">
+      <c r="C42" s="5" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A43" s="5" t="s">
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="B43" s="6" t="s">
+      <c r="B43" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="C43" s="6" t="s">
+      <c r="C43" s="5" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A44" s="5" t="s">
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="B44" s="6" t="s">
+      <c r="B44" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="C44" s="6" t="s">
+      <c r="C44" s="5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A45" s="5" t="s">
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="B45" s="6" t="s">
+      <c r="B45" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="C45" s="6" t="s">
+      <c r="C45" s="5" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A46" s="5" t="s">
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="B46" s="6" t="s">
+      <c r="B46" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="C46" s="6" t="s">
+      <c r="C46" s="5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A47" s="5" t="s">
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="B47" s="6" t="s">
+      <c r="B47" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="C47" s="6" t="s">
+      <c r="C47" s="5" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A48" s="5" t="s">
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="B48" s="6" t="s">
+      <c r="B48" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C48" s="6" t="s">
+      <c r="C48" s="5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A49" s="5" t="s">
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="B49" s="6" t="s">
+      <c r="B49" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="C49" s="6" t="s">
+      <c r="C49" s="5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A50" s="5" t="s">
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="B50" s="6" t="s">
+      <c r="B50" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="C50" s="6" t="s">
+      <c r="C50" s="5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A51" s="5" t="s">
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="B51" s="6" t="s">
+      <c r="B51" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="C51" s="6" t="s">
+      <c r="C51" s="5" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A52" s="5" t="s">
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="B52" s="6" t="s">
+      <c r="B52" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="C52" s="6" t="s">
+      <c r="C52" s="5" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A53" s="5" t="s">
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="B53" s="6" t="s">
+      <c r="B53" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="C53" s="6" t="s">
+      <c r="C53" s="5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A54" s="5" t="s">
+    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="B54" s="6" t="s">
+      <c r="B54" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="C54" s="6" t="s">
+      <c r="C54" s="5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A55" s="5" t="s">
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="B55" s="6" t="s">
+      <c r="B55" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="C55" s="6" t="s">
+      <c r="C55" s="5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A56" s="5" t="s">
+    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="B56" s="6" t="s">
+      <c r="B56" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="C56" s="6" t="s">
+      <c r="C56" s="5" t="s">
         <v>6</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="B57" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="C57" s="5" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="B58" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="C58" s="5" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="B59" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="C59" s="5" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="B60" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="C60" s="5" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="B61" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="C61" s="5" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="B62" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="C62" s="5" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="B63" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="C63" s="5" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="B64" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="C64" s="5" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="B65" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="C65" s="5" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="B66" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="C66" s="5" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="B67" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="C67" s="5" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="B68" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="C68" s="5" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="B69" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="C69" s="5" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="B70" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="C70" s="5" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="B71" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="C71" s="5" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="B72" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="C72" s="5" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="B73" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="C73" s="5" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="B74" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="C74" s="5" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="B75" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="C75" s="5" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="B76" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="C76" s="5" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="B77" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="C77" s="5" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="B78" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="C78" s="5" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="B79" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="C79" s="5" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="B80" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="C80" s="5" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="B81" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="C81" s="5" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="B82" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="C82" s="5" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="B83" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="C83" s="5" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="B84" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="C84" s="5" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="B85" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="C85" s="5" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="B86" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="C86" s="5" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="B87" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="C87" s="5" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="B88" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="C88" s="5" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A89" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="B89" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="C89" s="5" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A90" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="B90" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="C90" s="5" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A91" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="B91" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="C91" s="5" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A92" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="B92" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="C92" s="5" t="s">
+        <v>124</v>
       </c>
     </row>
   </sheetData>

--- a/download/Dicionario_Dados.xlsx
+++ b/download/Dicionario_Dados.xlsx
@@ -5,623 +5,638 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="166" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
+  <extLst>
+    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
+      <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="199">
-  <si>
-    <t>Dicionário de Dados</t>
-  </si>
-  <si>
-    <t>Variável</t>
-  </si>
-  <si>
-    <t>Descrição</t>
-  </si>
-  <si>
-    <t>Fonte</t>
-  </si>
-  <si>
-    <t>id_osc</t>
-  </si>
-  <si>
-    <t>Código Identificador da OSC</t>
-  </si>
-  <si>
-    <t>Mapa das OSC</t>
-  </si>
-  <si>
-    <t>tx_nome_fonte_recursos_osc</t>
-  </si>
-  <si>
-    <t>Nome da fonte de recursos da OSC</t>
-  </si>
-  <si>
-    <t>dt_ano_recursos_osc</t>
-  </si>
-  <si>
-    <t>Ano dos recursos da OSC</t>
-  </si>
-  <si>
-    <t>Representante de OSC</t>
-  </si>
-  <si>
-    <t>nr_valor_recursos_osc</t>
-  </si>
-  <si>
-    <t>Valor do recurso da OSC</t>
-  </si>
-  <si>
-    <t>tx_nome_origem_fonte_recursos_osc</t>
-  </si>
-  <si>
-    <t>Nome da origem da fonte de recursos da OSC</t>
-  </si>
-  <si>
-    <t>tx_razao_social_osc</t>
-  </si>
-  <si>
-    <t>Razão Social OSC</t>
-  </si>
-  <si>
-    <t>CNPJ/SRF/MF, RAIS/MTE, SALICWEB/MINC, OSCIP/MJ</t>
-  </si>
-  <si>
-    <t>tx_nome_fantasia_osc</t>
-  </si>
-  <si>
-    <t>Nome Fantasia OSC</t>
-  </si>
-  <si>
-    <t>CNPJ/SRF/MF, Representante de OSC, OSCIP/MJ</t>
-  </si>
-  <si>
-    <t>dt_fundacao_osc</t>
-  </si>
-  <si>
-    <t>Data de Fundação da OSC</t>
-  </si>
-  <si>
-    <t>tx_nome_classe_atividade_economica</t>
-  </si>
-  <si>
-    <t>Nome da classe da atividade economica</t>
-  </si>
-  <si>
-    <t>IBGE</t>
-  </si>
-  <si>
-    <t>edmu_cd_municipio</t>
-  </si>
-  <si>
-    <t>Código do municipio</t>
-  </si>
-  <si>
-    <t>edmu_nm_municipio</t>
-  </si>
-  <si>
-    <t>Nome do municipio</t>
-  </si>
-  <si>
-    <t>eduf_cd_uf</t>
-  </si>
-  <si>
-    <t>Código da UF</t>
-  </si>
-  <si>
-    <t>eduf_sg_uf</t>
-  </si>
-  <si>
-    <t>Sigla da UF</t>
-  </si>
-  <si>
-    <t>Área de atuação</t>
-  </si>
-  <si>
-    <t>Nome da área de atuação</t>
-  </si>
-  <si>
-    <t>Representante de OSC, Censo SUAS, LIE/MESP, CNEAS/MDS, CADSOL/MTE, CNPJ/SRF/MF, CNES/MS, CEBAS/MDS, CEBAS/MS, CEBAS/MEC</t>
-  </si>
-  <si>
-    <t>Subárea de atuação</t>
-  </si>
-  <si>
-    <t>Nome da subárea de atuação</t>
-  </si>
-  <si>
-    <t>tx_nome_certificado</t>
-  </si>
-  <si>
-    <t>Nome do Certificado</t>
-  </si>
-  <si>
-    <t>Entidade Ambientalista, CEBAS - Educação, CEBAS - Saúde, OSCIP,CEBAS - Assistência Social, Utilidade Pública Federal, Utilidade Pública Estadual, Utilidade Pública Municipal, Não Possui</t>
-  </si>
-  <si>
-    <t>ft_certificado</t>
-  </si>
-  <si>
-    <t>Fonte do certificado</t>
-  </si>
-  <si>
-    <t>Representante de OSC, Entidade Ambientalista, CEBAS - Educação, CEBAS - Saúde, OSCIP,CEBAS - Assistência Social, Utilidade Pública Federal, Utilidade Pública Estadual, Utilidade Pública Municipal, Não Possui</t>
-  </si>
-  <si>
-    <t>dt_inicio_certificado</t>
-  </si>
-  <si>
-    <t>Data de início do certificado</t>
-  </si>
-  <si>
-    <t>dt_fim_certificado</t>
-  </si>
-  <si>
-    <t>Data final do certificado</t>
-  </si>
-  <si>
-    <t>eduf_nm_uf</t>
-  </si>
-  <si>
-    <t>Nome da unidade da federação</t>
-  </si>
-  <si>
-    <t>tx_nome_conferencia</t>
-  </si>
-  <si>
-    <t>Nome da conferência declarada</t>
-  </si>
-  <si>
-    <t>Secretaria-Geral da Presidência da República</t>
-  </si>
-  <si>
-    <t>ft_conferencia</t>
-  </si>
-  <si>
-    <t>Fonte da conferência declarada</t>
-  </si>
-  <si>
-    <t>dt_ano_realizacao</t>
-  </si>
-  <si>
-    <t>Ano de realização da conferência</t>
-  </si>
-  <si>
-    <t>tx_nome_forma_participacao_conferencia</t>
-  </si>
-  <si>
-    <t>Nome da forma de participação em conferência</t>
-  </si>
-  <si>
-    <t>tx_nome_conselho</t>
-  </si>
-  <si>
-    <t>Nome do conselho ou comissão</t>
-  </si>
-  <si>
-    <t>tx_nome_orgao_vinculado</t>
-  </si>
-  <si>
-    <t>Orgão ao qual a comissão ou conselho está vinculado</t>
-  </si>
-  <si>
-    <t>dt_data_inicio_conselho</t>
-  </si>
-  <si>
-    <t>Data de início da participação no conselho</t>
-  </si>
-  <si>
-    <t>dt_data_fim_conselho</t>
-  </si>
-  <si>
-    <t>Data de fim da participação no conselho</t>
-  </si>
-  <si>
-    <t>tx_nome_periodicidade_reuniao_conselho</t>
-  </si>
-  <si>
-    <t>Nome da periodicidade de reunião de conselho</t>
-  </si>
-  <si>
-    <t>id_projeto</t>
-  </si>
-  <si>
-    <t>Código Identificador do projeto</t>
-  </si>
-  <si>
-    <t>tx_nome_projeto</t>
-  </si>
-  <si>
-    <t>Nome do projeto</t>
-  </si>
-  <si>
-    <t>Representante de OSC, FINEP/FNDCT, LIE/MESP, SICONV/MPOG , SALICWEB/MINC, </t>
-  </si>
-  <si>
-    <t>tx_nome_status_projeto</t>
-  </si>
-  <si>
-    <t>Status do projeto</t>
-  </si>
-  <si>
-    <t>dt_data_inicio_projeto</t>
-  </si>
-  <si>
-    <t>Data do início do projeto</t>
-  </si>
-  <si>
-    <t>dt_data_fim_projeto</t>
-  </si>
-  <si>
-    <t>Data do fim do projeto</t>
-  </si>
-  <si>
-    <t>tx_link_projeto</t>
-  </si>
-  <si>
-    <t>Link do projeto</t>
-  </si>
-  <si>
-    <t>nr_total_beneficiarios</t>
-  </si>
-  <si>
-    <t>Número total de beneficiarios do projeto</t>
-  </si>
-  <si>
-    <t>nr_valor_captado_projeto</t>
-  </si>
-  <si>
-    <t>Valor captado do projeto</t>
-  </si>
-  <si>
-    <t>nr_valor_total_projeto</t>
-  </si>
-  <si>
-    <t>Valor total do projeto</t>
-  </si>
-  <si>
-    <t>tx_nome_abrangencia_projeto</t>
-  </si>
-  <si>
-    <t>Valor de abrangência do projeto</t>
-  </si>
-  <si>
-    <t>tx_nome_zona_atuacao</t>
-  </si>
-  <si>
-    <t>Nome da zona de atução do projeto</t>
-  </si>
-  <si>
-    <t>tx_descricao_projeto</t>
-  </si>
-  <si>
-    <t>Descrição do projeto</t>
-  </si>
-  <si>
-    <t>tx_metodologia_monitoramento</t>
-  </si>
-  <si>
-    <t>Metodologia de monitoramento do projeto</t>
-  </si>
-  <si>
-    <t>ft_identificador_projeto_externo</t>
-  </si>
-  <si>
-    <t>Identificador externo de projeto</t>
-  </si>
-  <si>
-    <t>tx_status_projeto_outro</t>
-  </si>
-  <si>
-    <t>Nome do status do projeto</t>
-  </si>
-  <si>
-    <t>tx_nome_subarea_atuacao</t>
-  </si>
-  <si>
-    <t>Nome da subárea de atuação do projeto</t>
-  </si>
-  <si>
-    <t>tx_nome_financiador</t>
-  </si>
-  <si>
-    <t>Nome do Financiador</t>
-  </si>
-  <si>
-    <t>tx_orgao_concedente</t>
-  </si>
-  <si>
-    <t>Nome do Órgão Concedente</t>
-  </si>
-  <si>
-    <t>tx_nome_origem_fonte_recursos_projeto</t>
-  </si>
-  <si>
-    <t>tx_nome_fonte_recursos_projeto</t>
-  </si>
-  <si>
-    <t>Nome da fonte de recursos de projeto</t>
-  </si>
-  <si>
-    <t>tx_nome_regiao_localizacao_projeto</t>
-  </si>
-  <si>
-    <t>Nome da região da localização do projeto</t>
-  </si>
-  <si>
-    <t>tx_nome_objetivo_projeto</t>
-  </si>
-  <si>
-    <t>Nome do objetivo do projeto</t>
-  </si>
-  <si>
-    <t>ONU Agenda 2030 Objetivos de Desenvolvimento Sustentável (ODS)</t>
-  </si>
-  <si>
-    <t>tx_nome_meta_projeto</t>
-  </si>
-  <si>
-    <t>Nome da meta de projeto</t>
-  </si>
-  <si>
-    <t>id_osc_parceira</t>
-  </si>
-  <si>
-    <t>Código Identificador da OSC parceira</t>
-  </si>
-  <si>
-    <t>tx_nome_publico_beneficiado</t>
-  </si>
-  <si>
-    <t>Grupo de público beneficiado do projeto</t>
-  </si>
-  <si>
-    <t>nr_estimativa_pessoas_atendidas</t>
-  </si>
-  <si>
-    <t>Estimativa da quantidade de pessoas atendidas</t>
-  </si>
-  <si>
-    <t>tx_nome_tipo_parceria</t>
-  </si>
-  <si>
-    <t>Nome do tipo de parceria</t>
-  </si>
-  <si>
-    <t>FAM_PBF</t>
-  </si>
-  <si>
-    <t>Programa Bolsa Família - nº benefícios</t>
-  </si>
-  <si>
-    <t>Ipea Data</t>
-  </si>
-  <si>
-    <t>BPC_idos</t>
-  </si>
-  <si>
-    <t>Benefício de Prestação Continuada idosos - nº benefícios</t>
-  </si>
-  <si>
-    <t>BPC_defi</t>
-  </si>
-  <si>
-    <t>Benefício de Prestação Continuada deficientes - nº benefícios</t>
-  </si>
-  <si>
-    <t>MORT1</t>
-  </si>
-  <si>
-    <t>Mortalidade infantil</t>
-  </si>
-  <si>
-    <t>MORT5</t>
-  </si>
-  <si>
-    <t>Mortalidade até 05 anos</t>
-  </si>
-  <si>
-    <t>IDHM</t>
-  </si>
-  <si>
-    <t>Índice de Desenvolvimento Humano Municipal agregado</t>
-  </si>
-  <si>
-    <t>IDHM_E</t>
-  </si>
-  <si>
-    <t>Índice de Desenvolvimento Humano Municipal educacao</t>
-  </si>
-  <si>
-    <t>IDHM_L</t>
-  </si>
-  <si>
-    <t>Índice de Desenvolvimento Humano Municipal longevidade</t>
-  </si>
-  <si>
-    <t>IDHM_R</t>
-  </si>
-  <si>
-    <t>Índice de Desenvolvimento Humano Municipal renda</t>
-  </si>
-  <si>
-    <t>MEDHAB</t>
-  </si>
-  <si>
-    <t>Médicos residentes</t>
-  </si>
-  <si>
-    <t>T_ANALF15M</t>
-  </si>
-  <si>
-    <t>Taxa de analfabetismo - 15 anos ou mais</t>
-  </si>
-  <si>
-    <t>MEDUCA</t>
-  </si>
-  <si>
-    <t>Anos de estudo - média - pessoas 25 anos e mais</t>
-  </si>
-  <si>
-    <t>T_FUND25M</t>
-  </si>
-  <si>
-    <t>Taxa de 25 anos ou mais com fundamental completo</t>
-  </si>
-  <si>
-    <t>T_MED25M</t>
-  </si>
-  <si>
-    <t>Taxa de 25 anos ou mais com médio completo</t>
-  </si>
-  <si>
-    <t>T_SUPER25M</t>
-  </si>
-  <si>
-    <t>Taxa de 25 anos ou mais com superior completo</t>
-  </si>
-  <si>
-    <t>T_FORA4A5</t>
-  </si>
-  <si>
-    <t>Taxa de crianças de 4 a 5 anos fora da escola</t>
-  </si>
-  <si>
-    <t>T_FORA6A14</t>
-  </si>
-  <si>
-    <t>Taxa de crianças de 6 a 14 anos fora da escola</t>
-  </si>
-  <si>
-    <t>I_FREQ_PROP</t>
-  </si>
-  <si>
-    <t>Frequência escolar</t>
-  </si>
-  <si>
-    <t>T_DES18M</t>
-  </si>
-  <si>
-    <t>Taxa de desocupação - 18 anos ou mais</t>
-  </si>
-  <si>
-    <t>TRABCC</t>
-  </si>
-  <si>
-    <t>Taxa de empregados com carteira - 18 anos ou mais</t>
-  </si>
-  <si>
-    <t>TRABSC</t>
-  </si>
-  <si>
-    <t>Taxa de empregados sem carteira - 18 anos ou mais</t>
-  </si>
-  <si>
-    <t>PMPOB</t>
-  </si>
-  <si>
-    <t>População pobre (%)</t>
-  </si>
-  <si>
-    <t>PIND</t>
-  </si>
-  <si>
-    <t>População extremamente pobre (%)</t>
-  </si>
-  <si>
-    <t>PPOB</t>
-  </si>
-  <si>
-    <t>População vulneráveis a pobreza (%)</t>
-  </si>
-  <si>
-    <t>GINI</t>
-  </si>
-  <si>
-    <t>Desigualdade (Gini)</t>
-  </si>
-  <si>
-    <t>RDPC</t>
-  </si>
-  <si>
-    <t>Renda per capita (ed 2013)</t>
-  </si>
-  <si>
-    <t>RPOB</t>
-  </si>
-  <si>
-    <t>Renda per capita média dos vulneráveis a pobreza</t>
-  </si>
-  <si>
-    <t>RMPOB</t>
-  </si>
-  <si>
-    <t>Renda per capita média dos pobres</t>
-  </si>
-  <si>
-    <t>RIND</t>
-  </si>
-  <si>
-    <t>Renda per capita média dos extremamente pobres</t>
-  </si>
-  <si>
-    <t>T_AGUA</t>
-  </si>
-  <si>
-    <t>Domicílios com rede de abastecimento de água</t>
-  </si>
-  <si>
-    <t>AGUA_ESGOTO</t>
-  </si>
-  <si>
-    <t>Domicílios com água e esgotamento inadequados</t>
-  </si>
-  <si>
-    <t>T_SLUZ</t>
-  </si>
-  <si>
-    <t>Domicílios sem energia elétrica</t>
-  </si>
-  <si>
-    <t>T_LUZ</t>
-  </si>
-  <si>
-    <t>Domicílios com energia elétrica</t>
-  </si>
-  <si>
-    <t>T_MULCHEFEFIF014</t>
-  </si>
-  <si>
-    <t>Mães chefes de família sem fundamental completo e com filhos</t>
-  </si>
-  <si>
-    <t>PESORUR</t>
-  </si>
-  <si>
-    <t>População rural</t>
-  </si>
-  <si>
-    <t>PESOURB</t>
-  </si>
-  <si>
-    <t>População urbana</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="202">
+  <si>
+    <t xml:space="preserve">Dicionário de Dados</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Variável</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Descrição</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fonte</t>
+  </si>
+  <si>
+    <t xml:space="preserve">id_osc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Código Identificador da OSC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mapa das OSC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cd_identificador_osc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cadastro Nacional da Pessoa Jurídica</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CNPJ/SRF/MF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tx_nome_fonte_recursos_osc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nome da fonte de recursos da OSC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dt_ano_recursos_osc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ano dos recursos da OSC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Representante de OSC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nr_valor_recursos_osc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Valor do recurso da OSC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tx_nome_origem_fonte_recursos_osc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nome da origem da fonte de recursos da OSC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tx_razao_social_osc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Razão Social OSC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CNPJ/SRF/MF, RAIS/MTE, SALICWEB/MINC, OSCIP/MJ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tx_nome_fantasia_osc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nome Fantasia OSC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CNPJ/SRF/MF, Representante de OSC, OSCIP/MJ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dt_fundacao_osc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Data de Fundação da OSC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tx_nome_classe_atividade_economica</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nome da classe da atividade economica</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IBGE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">edmu_cd_municipio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Código do municipio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">edmu_nm_municipio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nome do municipio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">eduf_cd_uf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Código da UF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">eduf_sg_uf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sigla da UF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Área de atuação</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nome da área de atuação</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Representante de OSC, Censo SUAS, LIE/MESP, CNEAS/MDS, CADSOL/MTE, CNPJ/SRF/MF, CNES/MS, CEBAS/MDS, CEBAS/MS, CEBAS/MEC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Subárea de atuação</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nome da subárea de atuação</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tx_nome_certificado</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nome do Certificado</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Entidade Ambientalista, CEBAS - Educação, CEBAS - Saúde, OSCIP,CEBAS - Assistência Social, Utilidade Pública Federal, Utilidade Pública Estadual, Utilidade Pública Municipal, Não Possui</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ft_certificado</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fonte do certificado</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Representante de OSC, Entidade Ambientalista, CEBAS - Educação, CEBAS - Saúde, OSCIP,CEBAS - Assistência Social, Utilidade Pública Federal, Utilidade Pública Estadual, Utilidade Pública Municipal, Não Possui</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dt_inicio_certificado</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Data de início do certificado</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dt_fim_certificado</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Data final do certificado</t>
+  </si>
+  <si>
+    <t xml:space="preserve">eduf_nm_uf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nome da unidade da federação</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tx_nome_conferencia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nome da conferência declarada</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Secretaria-Geral da Presidência da República</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ft_conferencia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fonte da conferência declarada</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dt_ano_realizacao</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ano de realização da conferência</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tx_nome_forma_participacao_conferencia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nome da forma de participação em conferência</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tx_nome_conselho</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nome do conselho ou comissão</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tx_nome_orgao_vinculado</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Orgão ao qual a comissão ou conselho está vinculado</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dt_data_inicio_conselho</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Data de início da participação no conselho</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dt_data_fim_conselho</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Data de fim da participação no conselho</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tx_nome_periodicidade_reuniao_conselho</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nome da periodicidade de reunião de conselho</t>
+  </si>
+  <si>
+    <t xml:space="preserve">id_projeto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Código Identificador do projeto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tx_nome_projeto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nome do projeto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Representante de OSC, FINEP/FNDCT, LIE/MESP, SICONV/MPOG , SALICWEB/MINC, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">tx_nome_status_projeto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Status do projeto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dt_data_inicio_projeto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Data do início do projeto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dt_data_fim_projeto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Data do fim do projeto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tx_link_projeto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Link do projeto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nr_total_beneficiarios</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Número total de beneficiarios do projeto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nr_valor_captado_projeto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Valor captado do projeto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nr_valor_total_projeto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Valor total do projeto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tx_nome_abrangencia_projeto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Valor de abrangência do projeto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tx_nome_zona_atuacao</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nome da zona de atução do projeto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tx_descricao_projeto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Descrição do projeto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tx_metodologia_monitoramento</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Metodologia de monitoramento do projeto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ft_identificador_projeto_externo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Identificador externo de projeto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tx_status_projeto_outro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nome do status do projeto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tx_nome_subarea_atuacao</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nome da subárea de atuação do projeto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tx_nome_financiador</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nome do Financiador</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tx_orgao_concedente</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nome do Órgão Concedente</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tx_nome_origem_fonte_recursos_projeto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tx_nome_fonte_recursos_projeto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nome da fonte de recursos de projeto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tx_nome_regiao_localizacao_projeto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nome da região da localização do projeto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tx_nome_objetivo_projeto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nome do objetivo do projeto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ONU Agenda 2030 Objetivos de Desenvolvimento Sustentável (ODS)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tx_nome_meta_projeto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nome da meta de projeto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">id_osc_parceira</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Código Identificador da OSC parceira</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tx_nome_publico_beneficiado</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grupo de público beneficiado do projeto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nr_estimativa_pessoas_atendidas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Estimativa da quantidade de pessoas atendidas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tx_nome_tipo_parceria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nome do tipo de parceria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FAM_PBF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Programa Bolsa Família - nº benefícios</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ipea Data</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BPC_idos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Benefício de Prestação Continuada idosos - nº benefícios</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BPC_defi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Benefício de Prestação Continuada deficientes - nº benefícios</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MORT1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mortalidade infantil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MORT5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mortalidade até 05 anos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IDHM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Índice de Desenvolvimento Humano Municipal agregado</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IDHM_E</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Índice de Desenvolvimento Humano Municipal educacao</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IDHM_L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Índice de Desenvolvimento Humano Municipal longevidade</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IDHM_R</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Índice de Desenvolvimento Humano Municipal renda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MEDHAB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Médicos residentes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T_ANALF15M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Taxa de analfabetismo - 15 anos ou mais</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MEDUCA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anos de estudo - média - pessoas 25 anos e mais</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T_FUND25M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Taxa de 25 anos ou mais com fundamental completo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T_MED25M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Taxa de 25 anos ou mais com médio completo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T_SUPER25M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Taxa de 25 anos ou mais com superior completo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T_FORA4A5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Taxa de crianças de 4 a 5 anos fora da escola</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T_FORA6A14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Taxa de crianças de 6 a 14 anos fora da escola</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I_FREQ_PROP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Frequência escolar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T_DES18M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Taxa de desocupação - 18 anos ou mais</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TRABCC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Taxa de empregados com carteira - 18 anos ou mais</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TRABSC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Taxa de empregados sem carteira - 18 anos ou mais</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PMPOB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">População pobre (%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PIND</t>
+  </si>
+  <si>
+    <t xml:space="preserve">População extremamente pobre (%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PPOB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">População vulneráveis a pobreza (%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GINI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Desigualdade (Gini)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RDPC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Renda per capita (ed 2013)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RPOB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Renda per capita média dos vulneráveis a pobreza</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RMPOB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Renda per capita média dos pobres</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RIND</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Renda per capita média dos extremamente pobres</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T_AGUA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Domicílios com rede de abastecimento de água</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AGUA_ESGOTO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Domicílios com água e esgotamento inadequados</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T_SLUZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Domicílios sem energia elétrica</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T_LUZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Domicílios com energia elétrica</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T_MULCHEFEFIF014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mães chefes de família sem fundamental completo e com filhos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PESORUR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">População rural</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PESOURB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">População urbana</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="GENERAL"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="[$R$-416]\ #,##0.00;[RED]\-[$R$-416]\ #,##0.00"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="8">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -641,6 +656,17 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <u val="single"/>
+      <sz val="10"/>
+      <name val="FreeSans"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="FreeSans"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
@@ -684,7 +710,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
+  <cellStyleXfs count="24">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -708,17 +734,25 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="90" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -726,7 +760,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -735,13 +769,17 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="10">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
     <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
     <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
     <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+    <cellStyle name="Resultado" xfId="20" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Resultado2" xfId="21" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Título" xfId="22" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Título1" xfId="23" builtinId="53" customBuiltin="true"/>
   </cellStyles>
   <colors>
     <indexedColors>
@@ -811,18 +849,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C94"/>
+  <dimension ref="A1:C95"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A14" activeCellId="0" sqref="A14"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="35.0510204081633"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="53.2602040816327"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="177.479591836735"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="11.5204081632653"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="35.05"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="53.26"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="177.48"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="4" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -862,18 +900,18 @@
         <v>8</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -884,29 +922,29 @@
         <v>13</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="5" t="s">
         <v>14</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -928,18 +966,18 @@
         <v>23</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>26</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -950,51 +988,51 @@
         <v>28</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" s="5" t="s">
         <v>29</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1005,18 +1043,18 @@
         <v>39</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C18" s="5" t="s">
         <v>40</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1038,40 +1076,40 @@
         <v>47</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C21" s="5" t="s">
         <v>48</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>26</v>
+        <v>48</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>54</v>
+        <v>29</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1082,90 +1120,90 @@
         <v>56</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>11</v>
+        <v>57</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="4" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>54</v>
+        <v>6</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="C28" s="5"/>
+        <v>65</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="C29" s="5" t="s">
-        <v>11</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="C29" s="5"/>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="4" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="4" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="4" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C32" s="5" t="s">
         <v>6</v>
@@ -1173,13 +1211,13 @@
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="4" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>75</v>
+        <v>6</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1190,92 +1228,92 @@
         <v>77</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>6</v>
+        <v>78</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="4" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>75</v>
+        <v>6</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="4" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="4" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="4" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>11</v>
+        <v>78</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="4" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>75</v>
+        <v>14</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="4" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>6</v>
+        <v>78</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="4" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C42" s="5" t="s">
         <v>6</v>
@@ -1283,98 +1321,98 @@
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="4" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>75</v>
+        <v>6</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="4" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="4" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="4" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>11</v>
+        <v>78</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="4" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>37</v>
+        <v>14</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="4" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>11</v>
+        <v>40</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="4" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>75</v>
+        <v>14</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="4" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>15</v>
+        <v>110</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>6</v>
+        <v>78</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="4" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>110</v>
+        <v>18</v>
       </c>
       <c r="C51" s="5" t="s">
         <v>6</v>
@@ -1382,10 +1420,10 @@
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="4" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C52" s="5" t="s">
         <v>6</v>
@@ -1393,13 +1431,13 @@
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="4" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>115</v>
+        <v>6</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1410,62 +1448,62 @@
         <v>117</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="B55" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="C55" s="5" t="s">
         <v>118</v>
-      </c>
-      <c r="B55" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="C55" s="5" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="4" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="4" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="4" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="4" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>128</v>
+        <v>6</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1476,381 +1514,392 @@
         <v>130</v>
       </c>
       <c r="C60" s="5" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="4" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="4" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="4" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="4" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="4" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C65" s="5" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="4" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C66" s="5" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="4" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C67" s="5" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="4" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C68" s="5" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="4" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C69" s="5" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="4" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C70" s="5" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="4" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B71" s="5" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C71" s="5" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="4" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B72" s="5" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C72" s="5" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="4" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B73" s="5" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C73" s="5" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="4" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C74" s="5" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="4" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B75" s="5" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C75" s="5" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="4" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B76" s="5" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C76" s="5" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="4" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B77" s="5" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C77" s="5" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="4" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B78" s="5" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C78" s="5" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="4" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B79" s="5" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C79" s="5" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="4" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B80" s="5" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C80" s="5" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="4" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B81" s="5" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C81" s="5" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="4" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B82" s="5" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C82" s="5" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="4" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B83" s="5" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C83" s="5" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="4" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B84" s="5" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C84" s="5" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="4" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B85" s="5" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C85" s="5" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="4" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B86" s="5" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C86" s="5" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="4" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B87" s="5" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C87" s="5" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="4" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B88" s="5" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C88" s="5" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="4" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B89" s="5" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C89" s="5" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="4" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B90" s="5" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C90" s="5" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="4" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B91" s="5" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C91" s="5" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="4" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B92" s="5" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C92" s="5" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="4" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B93" s="5" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C93" s="5" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="4" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B94" s="5" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C94" s="5" t="s">
-        <v>128</v>
+        <v>131</v>
+      </c>
+    </row>
+    <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A95" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="B95" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="C95" s="5" t="s">
+        <v>131</v>
       </c>
     </row>
   </sheetData>
@@ -1859,7 +1908,7 @@
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
